--- a/about/Leadership 2023-24.xlsx
+++ b/about/Leadership 2023-24.xlsx
@@ -1,42 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/about/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782A819F-2550-8240-90C4-0ECAE687A79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="13900" windowWidth="21660" windowHeight="13420" firstSheet="18" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="EC" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Conf_Chairs" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Book" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="BRIDGE" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="CAC" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Continuing-Education" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Corrections" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Dissertation" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Early-Career" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Fellows" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Finance" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Governance" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Grad-Student-Aid" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="Legal-Scholars" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="Nominations" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="Practice" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="Women" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="Publications" sheetId="18" r:id="rId21"/>
-    <sheet state="visible" name="Research" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="Scientific-Paper" sheetId="20" r:id="rId23"/>
-    <sheet state="visible" name="Social-Media" sheetId="21" r:id="rId24"/>
-    <sheet state="visible" name="TTC" sheetId="22" r:id="rId25"/>
-    <sheet state="visible" name="Undergrad-Paper" sheetId="23" r:id="rId26"/>
-    <sheet state="visible" name="Undergrad-Student-Aid" sheetId="24" r:id="rId27"/>
-    <sheet state="visible" name="Liaisons" sheetId="25" r:id="rId28"/>
-    <sheet state="visible" name="Student Committee" sheetId="26" r:id="rId29"/>
+    <sheet name="EC" sheetId="1" r:id="rId1"/>
+    <sheet name="Conf_Chairs" sheetId="2" r:id="rId2"/>
+    <sheet name="Book" sheetId="3" r:id="rId3"/>
+    <sheet name="BRIDGE" sheetId="4" r:id="rId4"/>
+    <sheet name="CAC" sheetId="5" r:id="rId5"/>
+    <sheet name="Continuing-Education" sheetId="6" r:id="rId6"/>
+    <sheet name="Corrections" sheetId="7" r:id="rId7"/>
+    <sheet name="Dissertation" sheetId="8" r:id="rId8"/>
+    <sheet name="Early-Career" sheetId="9" r:id="rId9"/>
+    <sheet name="Fellows" sheetId="10" r:id="rId10"/>
+    <sheet name="Finance" sheetId="11" r:id="rId11"/>
+    <sheet name="Governance" sheetId="12" r:id="rId12"/>
+    <sheet name="Grad-Student-Aid" sheetId="13" r:id="rId13"/>
+    <sheet name="Legal-Scholars" sheetId="14" r:id="rId14"/>
+    <sheet name="Nominations" sheetId="15" r:id="rId15"/>
+    <sheet name="Practice" sheetId="16" r:id="rId16"/>
+    <sheet name="Women" sheetId="17" r:id="rId17"/>
+    <sheet name="Publications" sheetId="18" r:id="rId18"/>
+    <sheet name="Research" sheetId="19" r:id="rId19"/>
+    <sheet name="Scientific-Paper" sheetId="20" r:id="rId20"/>
+    <sheet name="Social-Media" sheetId="21" r:id="rId21"/>
+    <sheet name="TTC" sheetId="22" r:id="rId22"/>
+    <sheet name="Undergrad-Paper" sheetId="23" r:id="rId23"/>
+    <sheet name="Undergrad-Student-Aid" sheetId="24" r:id="rId24"/>
+    <sheet name="Liaisons" sheetId="25" r:id="rId25"/>
+    <sheet name="Student Committee" sheetId="26" r:id="rId26"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="431">
   <si>
     <t>Position</t>
   </si>
@@ -951,9 +960,6 @@
   </si>
   <si>
     <t>Mary.tait@marquette.edu</t>
-  </si>
-  <si>
-    <t>Member name</t>
   </si>
   <si>
     <t>Bradley McAuliff</t>
@@ -1337,26 +1343,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF316AD6"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1365,7 +1377,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1375,142 +1387,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1700,26 +1613,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.75"/>
-    <col customWidth="1" min="2" max="2" width="19.5"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="18.88"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1736,218 +1652,218 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1957,63 +1873,64 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2023,85 +1940,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2111,129 +2029,130 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2242,97 +2161,98 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2341,140 +2261,141 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2484,127 +2405,128 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2614,99 +2536,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2715,232 +2638,233 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2950,183 +2874,184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3136,106 +3061,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>313</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3245,278 +3160,279 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3526,85 +3442,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3614,79 +3531,80 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3696,127 +3614,128 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3826,127 +3745,128 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3955,103 +3875,104 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4061,99 +3982,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4163,99 +4085,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4264,173 +4187,174 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4440,127 +4364,128 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4570,271 +4495,272 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="3" width="27.38"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4844,99 +4770,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4946,169 +4873,170 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -5118,127 +5046,128 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -5248,253 +5177,254 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -5504,161 +5434,161 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/about/Leadership 2023-24.xlsx
+++ b/about/Leadership 2023-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/about/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782A819F-2550-8240-90C4-0ECAE687A79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008526E6-42D5-B142-8CBB-045EE752B450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13900" windowWidth="21660" windowHeight="13420" firstSheet="18" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="17240" windowHeight="13420" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="429">
   <si>
     <t>Position</t>
   </si>
@@ -1166,24 +1166,9 @@
     <t>2023–2026</t>
   </si>
   <si>
-    <t>Caroline Erentzen</t>
-  </si>
-  <si>
-    <t>erentzen@torontomu.ca</t>
-  </si>
-  <si>
-    <t>Tarika Daftary-Kapur</t>
-  </si>
-  <si>
-    <t>daftarykaput@montclair.edu</t>
-  </si>
-  <si>
     <t>Cassidy Haigh</t>
   </si>
   <si>
-    <t>cassidyhaigh@ufl.edu</t>
-  </si>
-  <si>
     <t>Lauren Kois</t>
   </si>
   <si>
@@ -1338,6 +1323,15 @@
   </si>
   <si>
     <t>Kytazi19@gmail.com</t>
+  </si>
+  <si>
+    <t>Douglas Lewis</t>
+  </si>
+  <si>
+    <t>Will (Minqui) Pan</t>
+  </si>
+  <si>
+    <t>Marco Chavez</t>
   </si>
 </sst>
 </file>
@@ -3722,11 +3716,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3750,27 +3744,27 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>423</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>367</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3780,9 +3774,7 @@
       <c r="B4" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>372</v>
       </c>
@@ -3794,9 +3786,7 @@
       <c r="B5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
@@ -3806,11 +3796,9 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>374</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
@@ -3820,27 +3808,33 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>376</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3884,10 +3878,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>83</v>
@@ -3898,10 +3892,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>71</v>
@@ -3926,10 +3920,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -3940,10 +3934,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>83</v>
@@ -3990,7 +3984,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>75</v>
@@ -4001,10 +3995,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -4015,10 +4009,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>83</v>
@@ -4029,10 +4023,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>83</v>
@@ -4043,10 +4037,10 @@
         <v>210</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>83</v>
@@ -4087,13 +4081,13 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>75</v>
@@ -4101,13 +4095,13 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>83</v>
@@ -4115,7 +4109,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>370</v>
@@ -4129,13 +4123,13 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -4143,13 +4137,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>83</v>
@@ -4167,7 +4161,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
@@ -4207,13 +4201,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -4221,7 +4215,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>365</v>
@@ -4235,13 +4229,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -4252,10 +4246,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -4263,13 +4257,13 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -4277,13 +4271,13 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -4291,13 +4285,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -4305,13 +4299,13 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -4319,13 +4313,13 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>

--- a/about/Leadership 2023-24.xlsx
+++ b/about/Leadership 2023-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/about/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008526E6-42D5-B142-8CBB-045EE752B450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E927BFD0-AAAA-DB49-A2D9-A328F226E057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="17240" windowHeight="13420" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="17240" windowHeight="13420" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="428">
   <si>
     <t>Position</t>
   </si>
@@ -623,12 +623,6 @@
     <t>tdclomax@yahoo.com</t>
   </si>
   <si>
-    <t>Elisabeth Pratt</t>
-  </si>
-  <si>
-    <t>epratt@ego.thechicagoschool.edu</t>
-  </si>
-  <si>
     <t>Jessica Hart</t>
   </si>
   <si>
@@ -1332,6 +1326,9 @@
   </si>
   <si>
     <t>Marco Chavez</t>
+  </si>
+  <si>
+    <t>Eva Rubinova</t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1936,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>83</v>
@@ -1953,10 +1950,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -1967,10 +1964,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>83</v>
@@ -1981,10 +1978,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>83</v>
@@ -2028,13 +2025,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2098,7 +2095,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2106,7 +2103,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2156,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2184,10 +2181,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2204,7 +2201,7 @@
         <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2212,7 +2209,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2220,7 +2217,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2264,10 +2261,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2278,16 +2275,16 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2295,16 +2292,16 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2312,16 +2309,16 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2329,10 +2326,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>83</v>
@@ -2343,10 +2340,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>83</v>
@@ -2357,10 +2354,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>83</v>
@@ -2404,10 +2401,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>75</v>
@@ -2418,10 +2415,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -2432,10 +2429,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>75</v>
@@ -2446,10 +2443,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>75</v>
@@ -2460,10 +2457,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>75</v>
@@ -2474,10 +2471,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>75</v>
@@ -2488,10 +2485,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
@@ -2577,10 +2574,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -2591,10 +2588,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -2633,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2655,16 +2652,16 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2686,10 +2683,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -2700,10 +2697,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -2714,10 +2711,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>80</v>
@@ -2728,10 +2725,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
@@ -2742,10 +2739,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>80</v>
@@ -2756,10 +2753,10 @@
         <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>83</v>
@@ -2770,10 +2767,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>83</v>
@@ -2798,10 +2795,10 @@
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>83</v>
@@ -2812,10 +2809,10 @@
         <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>83</v>
@@ -2826,10 +2823,10 @@
         <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>83</v>
@@ -2873,10 +2870,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
@@ -2887,10 +2884,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -2901,10 +2898,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>75</v>
@@ -2915,10 +2912,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -2929,10 +2926,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -2946,7 +2943,7 @@
         <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>80</v>
@@ -2954,13 +2951,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
@@ -2971,10 +2968,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>83</v>
@@ -2985,10 +2982,10 @@
         <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>83</v>
@@ -2996,13 +2993,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>83</v>
@@ -3010,13 +3007,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>83</v>
@@ -3060,10 +3057,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3085,7 +3082,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3093,7 +3090,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>54</v>
@@ -3104,10 +3101,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3115,10 +3112,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3159,10 +3156,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>83</v>
@@ -3173,10 +3170,10 @@
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>83</v>
@@ -3187,10 +3184,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>75</v>
@@ -3201,10 +3198,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>75</v>
@@ -3215,10 +3212,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>75</v>
@@ -3229,10 +3226,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>75</v>
@@ -3243,10 +3240,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>75</v>
@@ -3257,10 +3254,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>75</v>
@@ -3271,10 +3268,10 @@
         <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>75</v>
@@ -3285,10 +3282,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>75</v>
@@ -3299,10 +3296,10 @@
         <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>75</v>
@@ -3313,10 +3310,10 @@
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>75</v>
@@ -3327,10 +3324,10 @@
         <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>83</v>
@@ -3341,10 +3338,10 @@
         <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>83</v>
@@ -3355,10 +3352,10 @@
         <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>83</v>
@@ -3369,10 +3366,10 @@
         <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>83</v>
@@ -3383,10 +3380,10 @@
         <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>83</v>
@@ -3394,13 +3391,13 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>83</v>
@@ -3533,7 +3530,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>75</v>
@@ -3544,10 +3541,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -3558,10 +3555,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>83</v>
@@ -3572,7 +3569,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3613,10 +3610,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>83</v>
@@ -3627,10 +3624,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -3641,10 +3638,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>75</v>
@@ -3655,10 +3652,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -3669,10 +3666,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>83</v>
@@ -3683,10 +3680,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>83</v>
@@ -3694,13 +3691,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -3718,7 +3715,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
@@ -3747,7 +3744,7 @@
         <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>137</v>
@@ -3755,13 +3752,13 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
@@ -3772,11 +3769,11 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3796,7 +3793,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -3808,7 +3805,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -3820,7 +3817,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>83</v>
@@ -3831,7 +3828,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>83</v>
@@ -3870,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3878,10 +3875,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>83</v>
@@ -3892,10 +3889,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>71</v>
@@ -3906,10 +3903,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>71</v>
@@ -3920,10 +3917,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -3934,10 +3931,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>83</v>
@@ -3984,7 +3981,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>75</v>
@@ -3995,10 +3992,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -4009,10 +4006,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>83</v>
@@ -4023,10 +4020,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>83</v>
@@ -4034,13 +4031,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>83</v>
@@ -4081,13 +4078,13 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>75</v>
@@ -4095,13 +4092,13 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>83</v>
@@ -4109,13 +4106,13 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>80</v>
@@ -4123,13 +4120,13 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -4137,13 +4134,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>83</v>
@@ -4182,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4201,13 +4198,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -4215,13 +4212,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -4229,13 +4226,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -4246,10 +4243,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -4257,13 +4254,13 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -4271,13 +4268,13 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -4285,13 +4282,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -4299,13 +4296,13 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -4313,13 +4310,13 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -5407,9 +5404,9 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5447,11 +5444,9 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
@@ -5461,10 +5456,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>75</v>
@@ -5475,10 +5470,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -5489,10 +5484,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -5503,10 +5498,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>80</v>
@@ -5517,10 +5512,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>83</v>
@@ -5531,10 +5526,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>83</v>
@@ -5545,10 +5540,10 @@
         <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>83</v>
@@ -5559,10 +5554,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>83</v>
@@ -5570,13 +5565,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>80</v>

--- a/about/Leadership 2023-24.xlsx
+++ b/about/Leadership 2023-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/about/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E927BFD0-AAAA-DB49-A2D9-A328F226E057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16797B-B057-9045-BFA5-87A920DC5253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="17240" windowHeight="13420" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21660" yWindow="2520" windowWidth="25900" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="430">
   <si>
     <t>Position</t>
   </si>
@@ -179,18 +179,12 @@
     <t>2021-2026</t>
   </si>
   <si>
-    <t>Law and Human Behavior Editor</t>
-  </si>
-  <si>
     <t>Dave DeMatteo</t>
   </si>
   <si>
     <t>david.dematteo@drexel.edu</t>
   </si>
   <si>
-    <t>2020-2023</t>
-  </si>
-  <si>
     <t>Newsletter Editor</t>
   </si>
   <si>
@@ -1329,13 +1323,25 @@
   </si>
   <si>
     <t>Eva Rubinova</t>
+  </si>
+  <si>
+    <t>(Outgoing) Law and Human Behavior Editor</t>
+  </si>
+  <si>
+    <t>(Incoming) Law and Human Behavior Editor</t>
+  </si>
+  <si>
+    <t>Jan 2019- Dec 2024</t>
+  </si>
+  <si>
+    <t>Jan 2024- Dec 2029</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1361,6 +1367,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1389,13 +1402,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1614,9 +1628,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1849,16 +1865,16 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>301</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
@@ -1866,16 +1882,16 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>427</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>429</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
@@ -1883,22 +1899,42 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{5B480EE6-C28D-B646-8B86-0B32DCFE2B87}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1933,58 +1969,58 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2022,21 +2058,21 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -2045,12 +2081,12 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -2059,12 +2095,12 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -2073,12 +2109,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -2087,28 +2123,28 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>37</v>
@@ -2153,12 +2189,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -2172,7 +2208,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -2181,15 +2217,15 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -2198,26 +2234,26 @@
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2253,18 +2289,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2272,95 +2308,95 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2398,100 +2434,100 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2565,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -2538,12 +2574,12 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2552,12 +2588,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -2566,18 +2602,18 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -2585,13 +2621,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -2630,206 +2666,206 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2867,156 +2903,156 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3054,18 +3090,18 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -3076,46 +3112,46 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3153,254 +3189,254 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3435,58 +3471,58 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3524,52 +3560,52 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3607,97 +3643,97 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -3738,100 +3774,100 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3867,77 +3903,77 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3975,72 +4011,72 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4078,72 +4114,72 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4179,12 +4215,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
@@ -4198,13 +4234,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -4212,13 +4248,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -4226,13 +4262,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -4243,10 +4279,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -4254,13 +4290,13 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -4268,13 +4304,13 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -4282,13 +4318,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -4296,13 +4332,13 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -4310,13 +4346,13 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -4357,100 +4393,100 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4488,240 +4524,240 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4763,72 +4799,72 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4866,142 +4902,142 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5039,100 +5075,100 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5170,226 +5206,226 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5404,7 +5440,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
@@ -5427,154 +5463,154 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
